--- a/config_6.8/game_module_config.xlsx
+++ b/config_6.8/game_module_config.xlsx
@@ -11,7 +11,7 @@
     <sheet name="|lua说明" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$340</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$341</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -3279,7 +3279,7 @@
     <t>act_ty_ldfd</t>
   </si>
   <si>
-    <t>幸运福袋</t>
+    <t>端午福袋</t>
   </si>
   <si>
     <t>Act_ty_LDFDManager</t>
@@ -3844,12 +3844,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3930,10 +3930,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF171A1D"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3943,23 +3944,62 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3981,66 +4021,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -4059,8 +4042,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4081,14 +4073,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4098,7 +4085,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4143,25 +4130,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4173,145 +4160,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4324,6 +4179,126 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4353,6 +4328,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -4367,17 +4357,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4386,7 +4370,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4417,30 +4416,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -4460,7 +4435,7 @@
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4469,139 +4444,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4754,9 +4729,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5092,7 +5064,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C342" sqref="C342"/>
+      <selection pane="bottomRight" activeCell="C343" sqref="C343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12418,13 +12390,13 @@
         <v>838</v>
       </c>
       <c r="E288" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F288" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G288" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I288" s="37" t="s">
         <v>723</v>
@@ -13420,7 +13392,7 @@
       <c r="G327" s="5">
         <v>1</v>
       </c>
-      <c r="I327" s="52">
+      <c r="I327" s="51">
         <v>44354</v>
       </c>
     </row>
@@ -13726,7 +13698,7 @@
       <c r="G339">
         <v>1</v>
       </c>
-      <c r="I339" s="53">
+      <c r="I339" s="52">
         <v>44354</v>
       </c>
     </row>
@@ -13760,13 +13732,13 @@
       <c r="A341" s="5">
         <v>340</v>
       </c>
-      <c r="B341" s="51" t="s">
+      <c r="B341" s="49" t="s">
         <v>1002</v>
       </c>
       <c r="C341" t="s">
         <v>1003</v>
       </c>
-      <c r="D341" s="51" t="s">
+      <c r="D341" s="49" t="s">
         <v>1004</v>
       </c>
       <c r="E341">
@@ -13783,7 +13755,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H340">
+  <autoFilter ref="A1:H341">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_6.8/game_module_config.xlsx
+++ b/config_6.8/game_module_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="1007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="1006">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3603,7 +3603,7 @@
     <t>Act_Ty_QJD1Manager</t>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_017_dlphb</t>
+    <t>act_ty_sjb_style/act_018_dlphb</t>
   </si>
   <si>
     <t>掉落排行榜皮肤（消耗）</t>
@@ -3612,10 +3612,10 @@
     <t>3月29日23:59:59</t>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_017_tgboos</t>
-  </si>
-  <si>
-    <t>棒棒糖掉落</t>
+    <t>act_ty_by_drop_style/act_018_zongzi</t>
+  </si>
+  <si>
+    <t>粽子掉落</t>
   </si>
   <si>
     <t>5月24日23:59:59</t>
@@ -3633,7 +3633,7 @@
     <t>周常活动皮肤</t>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_018</t>
+    <t>sys_act_base_style/sys_act_base_weekly_019</t>
   </si>
   <si>
     <t>扩展活动皮肤</t>
@@ -3741,13 +3741,10 @@
     <t>act_052_qfhl</t>
   </si>
   <si>
-    <t>龙腾祈福</t>
+    <t>祈福有礼</t>
   </si>
   <si>
     <t>Act_052_QFHLManager</t>
-  </si>
-  <si>
-    <t>2021年4月12日 23:59:59</t>
   </si>
   <si>
     <t>act_ty_gifts</t>
@@ -3844,8 +3841,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -3944,10 +3941,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3958,11 +3972,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4022,8 +4040,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -4036,30 +4056,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4136,7 +4133,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4148,19 +4157,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4178,7 +4265,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4190,109 +4289,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4342,6 +4339,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -4362,6 +4370,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4390,17 +4407,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4415,15 +4421,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4432,7 +4429,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -4444,139 +4441,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4729,6 +4726,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5060,11 +5060,11 @@
   <dimension ref="A1:I341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C316" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C274" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C343" sqref="C343"/>
+      <selection pane="bottomRight" activeCell="C298" sqref="C298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13184,13 +13184,13 @@
         <v>937</v>
       </c>
       <c r="E319" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F319" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G319" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" s="37" t="s">
         <v>932</v>
@@ -13540,16 +13540,16 @@
         <v>977</v>
       </c>
       <c r="E333" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F333" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G333" s="5">
-        <v>0</v>
-      </c>
-      <c r="I333" s="32" t="s">
-        <v>978</v>
+        <v>1</v>
+      </c>
+      <c r="I333" s="52">
+        <v>44355</v>
       </c>
     </row>
     <row r="334" spans="1:9">
@@ -13557,25 +13557,25 @@
         <v>333</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C334" s="32" t="s">
         <v>166</v>
       </c>
       <c r="D334" t="s">
+        <v>979</v>
+      </c>
+      <c r="E334" s="5">
+        <v>0</v>
+      </c>
+      <c r="F334" s="5">
+        <v>0</v>
+      </c>
+      <c r="G334" s="5">
+        <v>0</v>
+      </c>
+      <c r="I334" s="32" t="s">
         <v>980</v>
-      </c>
-      <c r="E334" s="5">
-        <v>1</v>
-      </c>
-      <c r="F334" s="5">
-        <v>1</v>
-      </c>
-      <c r="G334" s="5">
-        <v>1</v>
-      </c>
-      <c r="I334" s="32" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -13583,22 +13583,22 @@
         <v>334</v>
       </c>
       <c r="B335" s="8" t="s">
+        <v>981</v>
+      </c>
+      <c r="C335" s="32" t="s">
         <v>982</v>
       </c>
-      <c r="C335" s="32" t="s">
+      <c r="E335" s="5">
+        <v>0</v>
+      </c>
+      <c r="F335" s="5">
+        <v>0</v>
+      </c>
+      <c r="G335" s="5">
+        <v>0</v>
+      </c>
+      <c r="I335" s="32" t="s">
         <v>983</v>
-      </c>
-      <c r="E335" s="5">
-        <v>1</v>
-      </c>
-      <c r="F335" s="5">
-        <v>1</v>
-      </c>
-      <c r="G335" s="5">
-        <v>1</v>
-      </c>
-      <c r="I335" s="32" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="336" spans="1:9">
@@ -13606,13 +13606,13 @@
         <v>335</v>
       </c>
       <c r="B336" s="8" t="s">
+        <v>984</v>
+      </c>
+      <c r="C336" s="32" t="s">
         <v>985</v>
       </c>
-      <c r="C336" s="32" t="s">
+      <c r="D336" s="28" t="s">
         <v>986</v>
-      </c>
-      <c r="D336" s="28" t="s">
-        <v>987</v>
       </c>
       <c r="E336" s="5">
         <v>1</v>
@@ -13632,25 +13632,25 @@
         <v>336</v>
       </c>
       <c r="B337" s="8" t="s">
+        <v>987</v>
+      </c>
+      <c r="C337" s="32" t="s">
         <v>988</v>
       </c>
-      <c r="C337" s="32" t="s">
+      <c r="D337" s="28" t="s">
         <v>989</v>
       </c>
-      <c r="D337" s="28" t="s">
+      <c r="E337" s="5">
+        <v>0</v>
+      </c>
+      <c r="F337" s="5">
+        <v>0</v>
+      </c>
+      <c r="G337" s="5">
+        <v>0</v>
+      </c>
+      <c r="I337" s="32" t="s">
         <v>990</v>
-      </c>
-      <c r="E337" s="5">
-        <v>0</v>
-      </c>
-      <c r="F337" s="5">
-        <v>0</v>
-      </c>
-      <c r="G337" s="5">
-        <v>0</v>
-      </c>
-      <c r="I337" s="32" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="338" spans="1:9">
@@ -13658,25 +13658,25 @@
         <v>337</v>
       </c>
       <c r="B338" s="49" t="s">
+        <v>991</v>
+      </c>
+      <c r="C338" t="s">
         <v>992</v>
       </c>
-      <c r="C338" t="s">
+      <c r="D338" s="50" t="s">
         <v>993</v>
       </c>
-      <c r="D338" s="50" t="s">
+      <c r="E338">
+        <v>1</v>
+      </c>
+      <c r="F338">
+        <v>1</v>
+      </c>
+      <c r="G338">
+        <v>1</v>
+      </c>
+      <c r="I338" t="s">
         <v>994</v>
-      </c>
-      <c r="E338">
-        <v>1</v>
-      </c>
-      <c r="F338">
-        <v>1</v>
-      </c>
-      <c r="G338">
-        <v>1</v>
-      </c>
-      <c r="I338" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="339" spans="1:9">
@@ -13684,11 +13684,11 @@
         <v>338</v>
       </c>
       <c r="B339" s="8" t="s">
+        <v>995</v>
+      </c>
+      <c r="C339" t="s">
         <v>996</v>
       </c>
-      <c r="C339" t="s">
-        <v>997</v>
-      </c>
       <c r="E339">
         <v>1</v>
       </c>
@@ -13698,7 +13698,7 @@
       <c r="G339">
         <v>1</v>
       </c>
-      <c r="I339" s="52">
+      <c r="I339" s="53">
         <v>44354</v>
       </c>
     </row>
@@ -13707,25 +13707,25 @@
         <v>339</v>
       </c>
       <c r="B340" s="49" t="s">
+        <v>997</v>
+      </c>
+      <c r="C340" t="s">
         <v>998</v>
       </c>
-      <c r="C340" t="s">
+      <c r="D340" s="49" t="s">
         <v>999</v>
       </c>
-      <c r="D340" s="49" t="s">
+      <c r="E340" s="5">
+        <v>0</v>
+      </c>
+      <c r="F340" s="5">
+        <v>0</v>
+      </c>
+      <c r="G340" s="5">
+        <v>0</v>
+      </c>
+      <c r="I340" s="32" t="s">
         <v>1000</v>
-      </c>
-      <c r="E340" s="5">
-        <v>0</v>
-      </c>
-      <c r="F340" s="5">
-        <v>0</v>
-      </c>
-      <c r="G340" s="5">
-        <v>0</v>
-      </c>
-      <c r="I340" s="32" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="341" ht="15.75" spans="1:9">
@@ -13733,25 +13733,25 @@
         <v>340</v>
       </c>
       <c r="B341" s="49" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C341" t="s">
         <v>1002</v>
       </c>
-      <c r="C341" t="s">
+      <c r="D341" s="49" t="s">
         <v>1003</v>
       </c>
-      <c r="D341" s="49" t="s">
+      <c r="E341">
+        <v>1</v>
+      </c>
+      <c r="F341">
+        <v>1</v>
+      </c>
+      <c r="G341">
+        <v>1</v>
+      </c>
+      <c r="I341" t="s">
         <v>1004</v>
-      </c>
-      <c r="E341">
-        <v>1</v>
-      </c>
-      <c r="F341">
-        <v>1</v>
-      </c>
-      <c r="G341">
-        <v>1</v>
-      </c>
-      <c r="I341" t="s">
-        <v>1005</v>
       </c>
     </row>
   </sheetData>
@@ -13781,7 +13781,7 @@
   <sheetData>
     <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="2" ht="51.75" customHeight="1"/>

--- a/config_6.8/game_module_config.xlsx
+++ b/config_6.8/game_module_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="1006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="1009">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3826,6 +3826,15 @@
   </si>
   <si>
     <t>长期</t>
+  </si>
+  <si>
+    <t>act_042_xshb</t>
+  </si>
+  <si>
+    <t>限时红包</t>
+  </si>
+  <si>
+    <t>Act_042_XSHBManager</t>
   </si>
   <si>
     <t xml:space="preserve">配置里的lua脚本是活动的启动脚本，可能是Logic也可能是一个活动的界面脚本
@@ -3927,6 +3936,35 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -3935,7 +3973,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3949,9 +3987,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3959,34 +3997,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3997,6 +4008,22 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4015,24 +4042,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -4048,14 +4059,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -4063,7 +4066,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4127,19 +4136,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4157,7 +4160,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4181,7 +4208,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4193,7 +4220,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4205,19 +4232,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4235,7 +4274,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4247,55 +4292,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4339,13 +4348,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4392,21 +4405,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4421,6 +4419,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4429,10 +4438,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4441,19 +4450,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4462,16 +4471,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4480,100 +4483,106 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4727,7 +4736,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5057,14 +5069,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I341"/>
+  <dimension ref="A1:I342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C274" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D320" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C298" sqref="C298"/>
+      <selection pane="bottomRight" activeCell="E335" sqref="E335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13392,7 +13404,7 @@
       <c r="G327" s="5">
         <v>1</v>
       </c>
-      <c r="I327" s="51">
+      <c r="I327" s="53">
         <v>44354</v>
       </c>
     </row>
@@ -13548,7 +13560,7 @@
       <c r="G333" s="5">
         <v>1</v>
       </c>
-      <c r="I333" s="52">
+      <c r="I333" s="53">
         <v>44355</v>
       </c>
     </row>
@@ -13698,7 +13710,7 @@
       <c r="G339">
         <v>1</v>
       </c>
-      <c r="I339" s="53">
+      <c r="I339" s="54">
         <v>44354</v>
       </c>
     </row>
@@ -13751,6 +13763,32 @@
         <v>1</v>
       </c>
       <c r="I341" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="342" ht="15.75" spans="1:9">
+      <c r="A342" s="5">
+        <v>341</v>
+      </c>
+      <c r="B342" s="51" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D342" s="52" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E342">
+        <v>1</v>
+      </c>
+      <c r="F342">
+        <v>1</v>
+      </c>
+      <c r="G342">
+        <v>1</v>
+      </c>
+      <c r="I342" t="s">
         <v>1004</v>
       </c>
     </row>
@@ -13781,7 +13819,7 @@
   <sheetData>
     <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="2" ht="51.75" customHeight="1"/>

--- a/config_6.8/game_module_config.xlsx
+++ b/config_6.8/game_module_config.xlsx
@@ -11,7 +11,7 @@
     <sheet name="|lua说明" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$341</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$342</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -3756,7 +3756,7 @@
     <t>通用礼包模板，永久</t>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_004_hllb</t>
+    <t>act_ty_gifts_style/act_003_hflb</t>
   </si>
   <si>
     <t>欢乐礼包</t>
@@ -3936,28 +3936,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -3981,23 +3959,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4008,14 +3992,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4042,6 +4018,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -4050,8 +4034,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4066,23 +4074,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4136,25 +4136,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4178,18 +4160,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4197,6 +4167,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4220,13 +4226,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4238,19 +4262,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4262,49 +4298,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4389,9 +4389,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4422,11 +4424,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4438,10 +4438,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4450,139 +4450,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4735,9 +4735,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5072,11 +5069,11 @@
   <dimension ref="A1:I342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D320" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C320" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E335" sqref="E335"/>
+      <selection pane="bottomRight" activeCell="B335" sqref="B335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13404,7 +13401,7 @@
       <c r="G327" s="5">
         <v>1</v>
       </c>
-      <c r="I327" s="53">
+      <c r="I327" s="52">
         <v>44354</v>
       </c>
     </row>
@@ -13560,7 +13557,7 @@
       <c r="G333" s="5">
         <v>1</v>
       </c>
-      <c r="I333" s="53">
+      <c r="I333" s="52">
         <v>44355</v>
       </c>
     </row>
@@ -13710,7 +13707,7 @@
       <c r="G339">
         <v>1</v>
       </c>
-      <c r="I339" s="54">
+      <c r="I339" s="53">
         <v>44354</v>
       </c>
     </row>
@@ -13770,13 +13767,13 @@
       <c r="A342" s="5">
         <v>341</v>
       </c>
-      <c r="B342" s="51" t="s">
+      <c r="B342" s="49" t="s">
         <v>1005</v>
       </c>
       <c r="C342" t="s">
         <v>1006</v>
       </c>
-      <c r="D342" s="52" t="s">
+      <c r="D342" s="51" t="s">
         <v>1007</v>
       </c>
       <c r="E342">
@@ -13793,7 +13790,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H341">
+  <autoFilter ref="A1:H342">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
